--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="160">
   <si>
     <t>Row</t>
   </si>
@@ -104,7 +104,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C_0504_1310Metric_Pad0.83x1.28mm_HandSolder</t>
+    <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
     <t>Capacitor_SMD</t>
@@ -122,10 +122,10 @@
     <t>pedalboard-led-ring(1)</t>
   </si>
   <si>
-    <t>19.4000</t>
-  </si>
-  <si>
-    <t>4.6000</t>
+    <t>17.8000</t>
+  </si>
+  <si>
+    <t>2.5000</t>
   </si>
   <si>
     <t>270.0000</t>
@@ -140,189 +140,306 @@
     <t>yes</t>
   </si>
   <si>
-    <t>2.0900</t>
-  </si>
-  <si>
-    <t>1.2800</t>
+    <t>3.2500</t>
+  </si>
+  <si>
+    <t>1.4500</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>SMD Bipolar Electrolytic capacitor, Diameter 5.0mm, Heigth 5.4mm Alternate KiCad Library</t>
-  </si>
-  <si>
-    <t>C_Bipolar_SMD_D5.0mm_H5.4mm</t>
-  </si>
-  <si>
-    <t>PCM_Capacitor_AKL</t>
+    <t>0.22uF, Min 25V, 10%, X7R or similar</t>
+  </si>
+  <si>
+    <t>0.22uF_0603_25V</t>
+  </si>
+  <si>
+    <t>PCM_4ms_Capacitor</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>-9.3000</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2.2uF, Min 25V 10% X5R</t>
+  </si>
+  <si>
+    <t>2.2uF_0603_25V</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C_Elec_5x5.4</t>
-  </si>
-  <si>
-    <t>PCM_Capacitor_SMD_AKL</t>
-  </si>
-  <si>
-    <t>13.4000</t>
+    <t>C_1206_3216Metric_Pad1.33x1.80mm_HandSolder</t>
+  </si>
+  <si>
+    <t>11.9000</t>
+  </si>
+  <si>
+    <t>0.4000</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>4.4500</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10uF, Min. 25V, X5R/X6S/X7R/X7S, 0805, MLCC</t>
+  </si>
+  <si>
+    <t>10uF_0805_25V</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BR61E106MA73-01.pdf</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>-11.5000</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Triple LED RVB (Avago Technology)</t>
+  </si>
+  <si>
+    <t>RGB-LED</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6</t>
+  </si>
+  <si>
+    <t>LED_RGB</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Harvatek%20PDFs/B3803FCH-20C001112U1930%20V1.3.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring(6)</t>
+  </si>
+  <si>
+    <t>8.0500</t>
+  </si>
+  <si>
+    <t>-4.0250</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>2.4100</t>
+  </si>
+  <si>
+    <t>2.3600</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x03, counter clockwise pin numbering scheme (similar to DIP package numbering), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>PinSocket_2x03_P2.54mm_Vertical_SMD</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm</t>
+  </si>
+  <si>
+    <t>15.6000</t>
+  </si>
+  <si>
+    <t>-8.0000</t>
+  </si>
+  <si>
+    <t>8.0400</t>
+  </si>
+  <si>
+    <t>6.0800</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>IND_LQH32CN150K53L</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/P02/JELF243A-0030.pdf</t>
+  </si>
+  <si>
+    <t>8.2500</t>
+  </si>
+  <si>
+    <t>-6.6000</t>
+  </si>
+  <si>
+    <t>5.5100</t>
+  </si>
+  <si>
+    <t>2.0100</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>SMD 0805 Chip Resistor, European Symbol, Alternate KiCad Library</t>
+  </si>
+  <si>
+    <t>R_0805</t>
+  </si>
+  <si>
+    <t>PCM_Resistor_AKL</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>5K1</t>
+  </si>
+  <si>
+    <t>R_0603</t>
+  </si>
+  <si>
+    <t>PCM_4ms_Resistor</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>7.4000</t>
+  </si>
+  <si>
+    <t>2.7000</t>
   </si>
   <si>
     <t>1.0000</t>
   </si>
   <si>
-    <t>0.0000</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>3.4M</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>-12.0000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>LT3494AEDDBPBF</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>DFN300X200X80-9N</t>
+  </si>
+  <si>
+    <t>6.4000</t>
+  </si>
+  <si>
+    <t>2.5500</t>
+  </si>
+  <si>
+    <t>2.2000</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3 Channel 12bit PWM constant currend LED Driver with single wire interface</t>
+  </si>
+  <si>
+    <t>TLC5973</t>
+  </si>
+  <si>
+    <t>Driver_LED</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tlc5973.pdf</t>
+  </si>
+  <si>
+    <t>14.9000</t>
+  </si>
+  <si>
+    <t>7.2000</t>
   </si>
   <si>
     <t>6.9000</t>
   </si>
   <si>
-    <t>1.6000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Triple LED RVB (Avago Technology)</t>
-  </si>
-  <si>
-    <t>RGB-LED</t>
-  </si>
-  <si>
-    <t>pedalboard-led-ring</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5 D6</t>
-  </si>
-  <si>
-    <t>LED_RGB</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Harvatek%20PDFs/B3803FCH-20C001112U1930%20V1.3.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-led-ring(6)</t>
-  </si>
-  <si>
-    <t>8.0500</t>
-  </si>
-  <si>
-    <t>-4.0250</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>2.4100</t>
-  </si>
-  <si>
-    <t>2.3600</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x03, counter clockwise pin numbering scheme (similar to DIP package numbering), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>PinHeader_2x03_P2.54mm_Vertical_SMD</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>15.6000</t>
-  </si>
-  <si>
-    <t>-8.0000</t>
-  </si>
-  <si>
-    <t>8.2000</t>
-  </si>
-  <si>
-    <t>6.0800</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>SMD 0805 Chip Resistor, European Symbol, Alternate KiCad Library</t>
-  </si>
-  <si>
-    <t>R_0805</t>
-  </si>
-  <si>
-    <t>PCM_Resistor_AKL</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>5K1</t>
-  </si>
-  <si>
-    <t>R_0603</t>
-  </si>
-  <si>
-    <t>PCM_4ms_Resistor</t>
-  </si>
-  <si>
-    <t>7.4000</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>2.7000</t>
-  </si>
-  <si>
-    <t>3 Channel 12bit PWM constant currend LED Driver with single wire interface</t>
-  </si>
-  <si>
-    <t>TLC5973</t>
-  </si>
-  <si>
-    <t>Driver_LED</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/tlc5973.pdf</t>
-  </si>
-  <si>
-    <t>14.9000</t>
-  </si>
-  <si>
-    <t>7.2000</t>
-  </si>
-  <si>
     <t>4.4100</t>
   </si>
   <si>
@@ -341,13 +458,10 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-22_19-36-40</t>
+    <t>2023-05-26_10-47-13</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -362,7 +476,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>11 (11 SMD/ 0 THT)</t>
+    <t>16 (16 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -880,7 +994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -891,10 +1005,10 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
@@ -915,7 +1029,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -939,55 +1053,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -995,16 +1109,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="F6" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1143,7 +1257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="30" customHeight="1">
+    <row r="10" spans="1:22">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1160,13 +1274,13 @@
         <v>46</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>22</v>
@@ -1178,7 +1292,7 @@
         <v>30</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>32</v>
@@ -1187,13 +1301,13 @@
         <v>33</v>
       </c>
       <c r="O10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="R10" s="11" t="s">
         <v>37</v>
@@ -1205,66 +1319,66 @@
         <v>39</v>
       </c>
       <c r="U10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
+      <c r="L11" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>38</v>
@@ -1273,36 +1387,36 @@
         <v>39</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="45" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>22</v>
@@ -1313,8 +1427,8 @@
       <c r="K12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>31</v>
+      <c r="L12" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>32</v>
@@ -1323,13 +1437,13 @@
         <v>33</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>37</v>
@@ -1341,66 +1455,66 @@
         <v>39</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>31</v>
+      <c r="L13" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>38</v>
@@ -1409,36 +1523,36 @@
         <v>39</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="30" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="45" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>22</v>
@@ -1449,8 +1563,8 @@
       <c r="K14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>98</v>
+      <c r="L14" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>32</v>
@@ -1459,13 +1573,13 @@
         <v>33</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>37</v>
@@ -1477,10 +1591,350 @@
         <v>39</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="V14" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1506,22 +1960,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -461,7 +461,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_10-47-13</t>
+    <t>2023-05-26_11-18-00</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -461,7 +461,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_11-18-00</t>
+    <t>2023-05-26_11-30-56</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -461,7 +461,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_11-30-56</t>
+    <t>2023-05-26_12-41-36</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -461,7 +461,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_12-41-36</t>
+    <t>2023-05-26_12-47-20</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -461,7 +461,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_12-47-20</t>
+    <t>2023-05-26_13-10-25</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -461,7 +461,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_13-10-25</t>
+    <t>2023-05-26_13-43-58</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="164">
   <si>
     <t>Row</t>
   </si>
@@ -101,7 +101,7 @@
     <t>C2</t>
   </si>
   <si>
-    <t>100nF</t>
+    <t>330nF</t>
   </si>
   <si>
     <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>~</t>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM216R61A334KA01-01.pdf</t>
   </si>
   <si>
     <t>/</t>
@@ -161,234 +161,243 @@
     <t>C4</t>
   </si>
   <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>-9.3000</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2.2uF, Min 25V 10% X5R</t>
+  </si>
+  <si>
+    <t>2.2uF_0603_25V</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C_1206_3216Metric_Pad1.33x1.80mm_HandSolder</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRT31CR61H225KE01-01.pdf</t>
+  </si>
+  <si>
+    <t>11.9000</t>
+  </si>
+  <si>
+    <t>0.4000</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>4.4500</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10uF, Min. 25V, X5R/X6S/X7R/X7S, 0805, MLCC</t>
+  </si>
+  <si>
+    <t>10uF_0805_25V</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRT31CR6YA106KE01-01.pdf</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>-11.5000</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Triple LED RVB (Avago Technology)</t>
+  </si>
+  <si>
+    <t>RGB-LED</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6</t>
+  </si>
+  <si>
+    <t>LED_RGB</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Harvatek%20PDFs/B3803FCH-20C001112U1930%20V1.3.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring(6)</t>
+  </si>
+  <si>
+    <t>8.0500</t>
+  </si>
+  <si>
+    <t>-4.0250</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>2.4100</t>
+  </si>
+  <si>
+    <t>2.3600</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x03, counter clockwise pin numbering scheme (similar to DIP package numbering), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>PinSocket_2x03_P2.54mm_Vertical_SMD</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm</t>
+  </si>
+  <si>
+    <t>https://www.precidip.com/AppHost/9696,1/Scripts/Modules/Catalog/Default.aspx?c=7&amp;i=349&amp;p=124&amp;pdf=1&amp;dsku=853-PP-NNN-30-001101</t>
+  </si>
+  <si>
+    <t>15.6000</t>
+  </si>
+  <si>
+    <t>-8.0000</t>
+  </si>
+  <si>
+    <t>8.0400</t>
+  </si>
+  <si>
+    <t>6.0800</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>IND_LQH32CN150K53L</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/P02/JELF243A-0030.pdf</t>
+  </si>
+  <si>
+    <t>8.2500</t>
+  </si>
+  <si>
+    <t>-6.6000</t>
+  </si>
+  <si>
+    <t>5.5100</t>
+  </si>
+  <si>
+    <t>2.0100</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>SMD 0805 Chip Resistor, European Symbol, Alternate KiCad Library</t>
+  </si>
+  <si>
+    <t>R_0805</t>
+  </si>
+  <si>
+    <t>PCM_Resistor_AKL</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>5K1</t>
+  </si>
+  <si>
+    <t>R_0603</t>
+  </si>
+  <si>
+    <t>PCM_4ms_Resistor</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Samsung%20PDFs/RC_Series_ds.pdf</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>7.4000</t>
+  </si>
+  <si>
+    <t>2.7000</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>3.4M</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>-12.0000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>-9.3000</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2.2uF, Min 25V 10% X5R</t>
-  </si>
-  <si>
-    <t>2.2uF_0603_25V</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C_1206_3216Metric_Pad1.33x1.80mm_HandSolder</t>
-  </si>
-  <si>
-    <t>11.9000</t>
-  </si>
-  <si>
-    <t>0.4000</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>4.4500</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10uF, Min. 25V, X5R/X6S/X7R/X7S, 0805, MLCC</t>
-  </si>
-  <si>
-    <t>10uF_0805_25V</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BR61E106MA73-01.pdf</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>-11.5000</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Triple LED RVB (Avago Technology)</t>
-  </si>
-  <si>
-    <t>RGB-LED</t>
-  </si>
-  <si>
-    <t>pedalboard-led-ring</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5 D6</t>
-  </si>
-  <si>
-    <t>LED_RGB</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Harvatek%20PDFs/B3803FCH-20C001112U1930%20V1.3.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-led-ring(6)</t>
-  </si>
-  <si>
-    <t>8.0500</t>
-  </si>
-  <si>
-    <t>-4.0250</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>2.4100</t>
-  </si>
-  <si>
-    <t>2.3600</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x03, counter clockwise pin numbering scheme (similar to DIP package numbering), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>PinSocket_2x03_P2.54mm_Vertical_SMD</t>
-  </si>
-  <si>
-    <t>Connector_PinSocket_2.54mm</t>
-  </si>
-  <si>
-    <t>15.6000</t>
-  </si>
-  <si>
-    <t>-8.0000</t>
-  </si>
-  <si>
-    <t>8.0400</t>
-  </si>
-  <si>
-    <t>6.0800</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>10uH</t>
-  </si>
-  <si>
-    <t>IND_LQH32CN150K53L</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/P02/JELF243A-0030.pdf</t>
-  </si>
-  <si>
-    <t>8.2500</t>
-  </si>
-  <si>
-    <t>-6.6000</t>
-  </si>
-  <si>
-    <t>5.5100</t>
-  </si>
-  <si>
-    <t>2.0100</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>SMD 0805 Chip Resistor, European Symbol, Alternate KiCad Library</t>
-  </si>
-  <si>
-    <t>R_0805</t>
-  </si>
-  <si>
-    <t>PCM_Resistor_AKL</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>5K1</t>
-  </si>
-  <si>
-    <t>R_0603</t>
-  </si>
-  <si>
-    <t>PCM_4ms_Resistor</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>7.4000</t>
-  </si>
-  <si>
-    <t>2.7000</t>
-  </si>
-  <si>
-    <t>1.0000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>3.4M</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>-12.0000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>LT3494AEDDBPBF</t>
   </si>
   <si>
@@ -398,6 +407,9 @@
     <t>DFN300X200X80-9N</t>
   </si>
   <si>
+    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/3494fb.pdf</t>
+  </si>
+  <si>
     <t>6.4000</t>
   </si>
   <si>
@@ -428,7 +440,7 @@
     <t>Package_SO</t>
   </si>
   <si>
-    <t>http://www.ti.com/lit/ds/symlink/tlc5973.pdf</t>
+    <t>https://www.ti.com/lit/ds/symlink/tlc5973.pdf</t>
   </si>
   <si>
     <t>14.9000</t>
@@ -461,7 +473,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_13-43-58</t>
+    <t>2023-05-26_14-20-59</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -569,12 +581,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -594,6 +600,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8A8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,7 +1020,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
@@ -1029,7 +1041,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1053,13 +1065,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F2" s="3">
         <v>11</v>
@@ -1067,41 +1079,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1109,13 +1121,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F6" s="3">
         <v>16</v>
@@ -1189,7 +1201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1223,7 +1235,7 @@
       <c r="K9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -1257,95 +1269,95 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:22" ht="30" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="I10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="R10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>29</v>
@@ -1359,8 +1371,8 @@
       <c r="K11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>47</v>
+      <c r="L11" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>32</v>
@@ -1394,70 +1406,70 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="I12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1530,94 +1542,94 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="45" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="9" t="s">
+      <c r="I14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="11" t="s">
+      <c r="L14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" s="11" t="s">
+      <c r="O14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="P14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V14" s="11" t="s">
+      <c r="U14" s="10" t="s">
         <v>93</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>75</v>
@@ -1632,7 +1644,7 @@
         <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>32</v>
@@ -1641,10 +1653,10 @@
         <v>33</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>58</v>
@@ -1659,104 +1671,104 @@
         <v>39</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="9" t="s">
+      <c r="H16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="11" t="s">
+      <c r="L16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="11" t="s">
+      <c r="O16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U16" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>116</v>
+      <c r="U16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
@@ -1767,8 +1779,8 @@
       <c r="K17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>31</v>
+      <c r="L17" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>32</v>
@@ -1777,10 +1789,10 @@
         <v>33</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>36</v>
@@ -1795,104 +1807,104 @@
         <v>39</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="30" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R18" s="11" t="s">
+      <c r="Q18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U18" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>128</v>
+      <c r="U18" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -1904,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>32</v>
@@ -1913,10 +1925,10 @@
         <v>33</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>58</v>
@@ -1931,10 +1943,10 @@
         <v>39</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1960,22 +1972,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>159</v>
+      <c r="A4" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -473,7 +473,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_14-20-59</t>
+    <t>2023-05-26_14-22-24</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="165">
   <si>
     <t>Row</t>
   </si>
@@ -161,7 +161,7 @@
     <t>C4</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>2.9000</t>
   </si>
   <si>
     <t>-9.3000</t>
@@ -221,7 +221,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>-11.5000</t>
+    <t>-11.1000</t>
   </si>
   <si>
     <t>90.0000</t>
@@ -290,10 +290,10 @@
     <t>Connector_PinSocket_2.54mm</t>
   </si>
   <si>
-    <t>https://www.precidip.com/AppHost/9696,1/Scripts/Modules/Catalog/Default.aspx?c=7&amp;i=349&amp;p=124&amp;pdf=1&amp;dsku=853-PP-NNN-30-001101</t>
-  </si>
-  <si>
-    <t>15.6000</t>
+    <t>~</t>
+  </si>
+  <si>
+    <t>16.5000</t>
   </si>
   <si>
     <t>-8.0000</t>
@@ -326,10 +326,10 @@
     <t>https://search.murata.co.jp/Ceramy/image/img/P02/JELF243A-0030.pdf</t>
   </si>
   <si>
-    <t>8.2500</t>
-  </si>
-  <si>
-    <t>-6.6000</t>
+    <t>7.9000</t>
+  </si>
+  <si>
+    <t>-7.1000</t>
   </si>
   <si>
     <t>5.5100</t>
@@ -404,7 +404,10 @@
     <t>U2</t>
   </si>
   <si>
-    <t>DFN300X200X80-9N</t>
+    <t>DFN-8-1EP_2x3mm_P0.5mm_EP0.61x2.2mm</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN</t>
   </si>
   <si>
     <t>https://www.analog.com/media/en/technical-documentation/data-sheets/3494fb.pdf</t>
@@ -473,7 +476,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_14-22-24</t>
+    <t>2023-05-26_17-21-17</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -1041,7 +1044,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1065,13 +1068,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" s="3">
         <v>11</v>
@@ -1079,41 +1082,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1121,13 +1124,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F6" s="3">
         <v>16</v>
@@ -1575,7 +1578,7 @@
       <c r="K14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="11" t="s">
         <v>90</v>
       </c>
       <c r="M14" s="10" t="s">
@@ -1835,8 +1838,8 @@
       <c r="G18" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>125</v>
+      <c r="H18" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>22</v>
@@ -1848,7 +1851,7 @@
         <v>30</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>32</v>
@@ -1857,7 +1860,7 @@
         <v>33</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="10" t="s">
         <v>123</v>
@@ -1875,36 +1878,36 @@
         <v>39</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -1916,7 +1919,7 @@
         <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>32</v>
@@ -1925,10 +1928,10 @@
         <v>33</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>58</v>
@@ -1943,10 +1946,10 @@
         <v>39</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1972,22 +1975,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -476,7 +476,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_17-21-17</t>
+    <t>2023-05-26_17-26-11</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -476,7 +476,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_17-26-11</t>
+    <t>2023-05-28_08-21-26</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="166">
   <si>
     <t>Row</t>
   </si>
@@ -473,10 +473,13 @@
     <t>Revision:</t>
   </si>
   <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-28_08-21-26</t>
+    <t>2023-05-29</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -1074,7 +1077,7 @@
         <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F2" s="3">
         <v>11</v>
@@ -1088,10 +1091,10 @@
         <v>149</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1099,24 +1102,24 @@
         <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1124,13 +1127,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F6" s="3">
         <v>16</v>
@@ -1975,22 +1978,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -170,7 +170,7 @@
     <t>LED_SMD</t>
   </si>
   <si>
-    <t>https://cdn-shop.adafruit.com/product-files/2686/SK6812MINI_REV.01-1-2.pdf</t>
+    <t>https://cdn-shop.adafruit.com/product-files/4492/Datasheet.pdf</t>
   </si>
   <si>
     <t>9.0000</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <t>Row</t>
   </si>
@@ -191,7 +191,10 @@
     <t>Connector_Generic</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>middle</t>
   </si>
   <si>
     <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
@@ -200,19 +203,52 @@
     <t>Connector_PinSocket_2.00mm</t>
   </si>
   <si>
+    <t>pedalboard-led-ring(2)</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
     <t>pedalboard-led-ring(1)</t>
   </si>
   <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>3.0000</t>
+    <t>8.9100</t>
+  </si>
+  <si>
+    <t>-1.6800</t>
+  </si>
+  <si>
+    <t>180.0000</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -254,7 +290,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>25 (25 SMD/ 0 THT)</t>
+    <t>27 (27 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -314,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +405,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8A8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -382,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -415,6 +457,9 @@
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -763,7 +808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -777,7 +822,7 @@
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
@@ -798,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -822,55 +867,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F2" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -878,16 +923,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F6" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1111,19 +1156,19 @@
         <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
@@ -1135,19 +1180,19 @@
         <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>39</v>
@@ -1159,7 +1204,75 @@
         <v>51</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1185,22 +1298,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
   <si>
     <t>Row</t>
   </si>
@@ -116,7 +118,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>~</t>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Samsung%20PDFs/CL_Series_MLCC_ds.pdf</t>
   </si>
   <si>
     <t>/</t>
@@ -182,6 +184,93 @@
     <t>3</t>
   </si>
   <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://api.pim.na.industrial.panasonic.com/file_stream/main/fileversion/1242</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring(1)</t>
+  </si>
+  <si>
+    <t>8.9100</t>
+  </si>
+  <si>
+    <t>-1.6800</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>27 (27 SMD/ 0 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>25 (25 SMD/ 0 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -203,6 +292,15 @@
     <t>Connector_PinSocket_2.00mm</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>https://gct.co/files/drawings/bf100.pdf</t>
+  </si>
+  <si>
     <t>pedalboard-led-ring(2)</t>
   </si>
   <si>
@@ -215,91 +313,10 @@
     <t>bottom</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>3.0000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>pedalboard-led-ring(1)</t>
-  </si>
-  <si>
-    <t>8.9100</t>
-  </si>
-  <si>
-    <t>-1.6800</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-led-ring</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-05-29</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>27 (27 SMD/ 0 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -350,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,12 +400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,7 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -459,9 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,6 +480,58 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -808,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -818,13 +878,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
@@ -843,7 +903,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -867,13 +927,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
@@ -881,41 +941,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -923,16 +983,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1003,7 +1063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1097,7 @@
       <c r="K9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -1072,74 +1132,74 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="45" customHeight="1">
+    <row r="11" spans="1:22" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -1150,31 +1210,31 @@
         <v>55</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>32</v>
+      <c r="L11" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
@@ -1186,13 +1246,13 @@
         <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>39</v>
@@ -1201,77 +1261,9 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="V12" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1287,6 +1279,281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.7109375" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="45" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1298,22 +1565,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>97</v>
+      <c r="A4" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
   <si>
     <t>Row</t>
   </si>
@@ -166,10 +166,13 @@
     <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12</t>
   </si>
   <si>
+    <t>SK6812_EC15</t>
+  </si>
+  <si>
     <t>LED_SK6812_EC15_1.5x1.5mm</t>
   </si>
   <si>
-    <t>LED_SMD</t>
+    <t>Library</t>
   </si>
   <si>
     <t>https://cdn-shop.adafruit.com/product-files/4492/Datasheet.pdf</t>
@@ -903,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -927,13 +930,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
@@ -941,41 +944,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -983,13 +986,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" s="3">
         <v>25</v>
@@ -1148,13 +1151,13 @@
         <v>47</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>30</v>
@@ -1166,7 +1169,7 @@
         <v>31</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>33</v>
@@ -1175,7 +1178,7 @@
         <v>34</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>36</v>
@@ -1193,36 +1196,36 @@
         <v>40</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>22</v>
@@ -1234,22 +1237,22 @@
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>38</v>
@@ -1314,7 +1317,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1338,13 +1341,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
@@ -1352,41 +1355,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1394,13 +1397,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" s="3">
         <v>25</v>
@@ -1479,67 +1482,67 @@
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1565,22 +1568,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -307,7 +307,7 @@
     <t>pedalboard-led-ring(2)</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>9.5000</t>
   </si>
   <si>
     <t>90.0000</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
   <si>
     <t>Row</t>
   </si>
@@ -127,60 +127,63 @@
     <t>pedalboard-led-ring(12)</t>
   </si>
   <si>
-    <t>10.3500</t>
+    <t>8.9400</t>
+  </si>
+  <si>
+    <t>1.3500</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>1.4500</t>
+  </si>
+  <si>
+    <t>0.4000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12</t>
+  </si>
+  <si>
+    <t>SK6812_EC15</t>
+  </si>
+  <si>
+    <t>LED_SK6812_EC15_1.5x1.5mm</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>9.0000</t>
   </si>
   <si>
     <t>0.0000</t>
   </si>
   <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>1.4500</t>
-  </si>
-  <si>
-    <t>0.4000</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812MINI</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12</t>
-  </si>
-  <si>
-    <t>SK6812_EC15</t>
-  </si>
-  <si>
-    <t>LED_SK6812_EC15_1.5x1.5mm</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/4492/Datasheet.pdf</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>1.4000</t>
   </si>
   <si>
@@ -217,16 +220,10 @@
     <t>-1.6800</t>
   </si>
   <si>
-    <t>180.0000</t>
-  </si>
-  <si>
     <t>KiBot Bill of Materials</t>
   </si>
   <si>
     <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-led-ring</t>
   </si>
   <si>
     <t>Variant:</t>
@@ -933,10 +930,10 @@
         <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
@@ -944,41 +941,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -986,13 +983,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3">
         <v>25</v>
@@ -1181,10 +1178,10 @@
         <v>52</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -1196,36 +1193,36 @@
         <v>40</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>22</v>
@@ -1237,22 +1234,22 @@
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>38</v>
@@ -1344,10 +1341,10 @@
         <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
@@ -1355,41 +1352,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1397,13 +1394,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3">
         <v>25</v>
@@ -1482,67 +1479,67 @@
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1568,22 +1565,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -304,7 +304,7 @@
     <t>pedalboard-led-ring(2)</t>
   </si>
   <si>
-    <t>9.5000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>90.0000</t>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="118">
   <si>
     <t>Row</t>
   </si>
@@ -127,63 +127,63 @@
     <t>pedalboard-led-ring(12)</t>
   </si>
   <si>
-    <t>8.9400</t>
+    <t>9.1500</t>
   </si>
   <si>
     <t>1.3500</t>
   </si>
   <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>1.4500</t>
+  </si>
+  <si>
+    <t>0.4000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12</t>
+  </si>
+  <si>
+    <t>SK6812_EC15</t>
+  </si>
+  <si>
+    <t>LED_SK6812_EC15_1.5x1.5mm</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>180.0000</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>1.4500</t>
-  </si>
-  <si>
-    <t>0.4000</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>pedalboard-led-ring</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12</t>
-  </si>
-  <si>
-    <t>SK6812_EC15</t>
-  </si>
-  <si>
-    <t>LED_SK6812_EC15_1.5x1.5mm</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
     <t>1.4000</t>
   </si>
   <si>
@@ -196,24 +196,39 @@
     <t>R</t>
   </si>
   <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C301.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring(1)</t>
+  </si>
+  <si>
+    <t>2.0500</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
     <t>330</t>
   </si>
   <si>
-    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
     <t>https://api.pim.na.industrial.panasonic.com/file_stream/main/fileversion/1242</t>
   </si>
   <si>
-    <t>pedalboard-led-ring(1)</t>
-  </si>
-  <si>
     <t>8.9100</t>
   </si>
   <si>
@@ -256,13 +271,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>27 (27 SMD/ 0 THT)</t>
+    <t>29 (29 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>25 (25 SMD/ 0 THT)</t>
+    <t>26 (26 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -271,6 +286,45 @@
     <t>Total Components:</t>
   </si>
   <si>
+    <t>75V 0.15A Fast Switching Diode, SOD-123</t>
+  </si>
+  <si>
+    <t>1N4148W</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D_SOD-923</t>
+  </si>
+  <si>
+    <t>Diode_SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8.7725</t>
+  </si>
+  <si>
+    <t>2.8500</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>1.2000</t>
+  </si>
+  <si>
+    <t>0.2500</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -292,12 +346,6 @@
     <t>Connector_PinSocket_2.00mm</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
     <t>https://gct.co/files/drawings/bf100.pdf</t>
   </si>
   <si>
@@ -311,9 +359,6 @@
   </si>
   <si>
     <t>bottom</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>3.0000</t>
@@ -868,7 +913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -903,7 +948,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -927,55 +972,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -983,16 +1028,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1178,10 +1223,10 @@
         <v>52</v>
       </c>
       <c r="P10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -1243,13 +1288,13 @@
         <v>63</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>38</v>
@@ -1264,6 +1309,74 @@
         <v>41</v>
       </c>
       <c r="V11" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="30" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1279,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1314,7 +1427,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1338,55 +1451,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1394,16 +1507,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1474,72 +1587,140 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="45" customHeight="1">
+    <row r="9" spans="1:22">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="45" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="V9" s="7" t="s">
-        <v>98</v>
+      <c r="V10" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1565,22 +1746,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="122">
   <si>
     <t>Row</t>
   </si>
@@ -175,7 +175,7 @@
     <t>Library</t>
   </si>
   <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+    <t>http://www.normandled.com/upload/202112/SK9810-EC15%20LED%20Datasheet.pdf</t>
   </si>
   <si>
     <t>9.0000</t>
@@ -190,6 +190,48 @@
     <t>3</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.00mm</t>
+  </si>
+  <si>
+    <t>https://gct.co/files/drawings/bf100.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring(1)</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>-9.5000</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -211,13 +253,10 @@
     <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C301.pdf</t>
   </si>
   <si>
-    <t>pedalboard-led-ring(1)</t>
-  </si>
-  <si>
     <t>2.0500</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>R1</t>
@@ -277,7 +316,7 @@
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>26 (26 SMD/ 0 THT)</t>
+    <t>27 (27 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -325,43 +364,16 @@
     <t>0.2500</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
+    <t>J1</t>
   </si>
   <si>
     <t>middle</t>
   </si>
   <si>
-    <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
-  </si>
-  <si>
-    <t>Connector_PinSocket_2.00mm</t>
-  </si>
-  <si>
-    <t>https://gct.co/files/drawings/bf100.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-led-ring(2)</t>
-  </si>
-  <si>
     <t>10.0000</t>
   </si>
   <si>
     <t>90.0000</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>3.0000</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -913,7 +925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -923,13 +935,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
@@ -948,7 +960,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -972,55 +984,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1028,16 +1040,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1244,7 +1256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="30" customHeight="1">
+    <row r="11" spans="1:22" ht="45" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1255,19 +1267,19 @@
         <v>57</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>22</v>
@@ -1279,25 +1291,25 @@
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>39</v>
@@ -1306,36 +1318,36 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>22</v>
@@ -1347,19 +1359,19 @@
         <v>31</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>53</v>
@@ -1377,6 +1389,74 @@
         <v>41</v>
       </c>
       <c r="V12" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1427,7 +1507,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1451,55 +1531,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1507,16 +1587,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1592,49 +1672,49 @@
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>37</v>
@@ -1646,13 +1726,13 @@
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="45" customHeight="1">
@@ -1660,67 +1740,67 @@
         <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="L10" s="10" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="U10" s="10" t="s">
         <v>52</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1746,22 +1826,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
